--- a/JobProcessing/DataFiles/Login.xlsx
+++ b/JobProcessing/DataFiles/Login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -44,16 +44,27 @@
   </si>
   <si>
     <t>sdarji</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,14 +93,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,7 +409,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,8 +441,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -448,6 +462,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>